--- a/DiodeTemperatureGraphs.xlsx
+++ b/DiodeTemperatureGraphs.xlsx
@@ -225,7 +225,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -461,12 +460,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="192465152"/>
-        <c:axId val="192811392"/>
+        <c:axId val="217540480"/>
+        <c:axId val="217559040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="192465152"/>
+        <c:axId val="217540480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -501,17 +499,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192811392"/>
+        <c:crossAx val="217559040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="192811392"/>
+        <c:axId val="217559040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -542,26 +539,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192465152"/>
+        <c:crossAx val="217540480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -588,7 +583,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -800,12 +794,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="192830080"/>
-        <c:axId val="192860928"/>
+        <c:axId val="219232512"/>
+        <c:axId val="219242880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="192830080"/>
+        <c:axId val="219232512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -840,17 +833,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192860928"/>
+        <c:crossAx val="219242880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="192860928"/>
+        <c:axId val="219242880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -881,26 +873,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192830080"/>
+        <c:crossAx val="219232512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -927,7 +917,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1139,12 +1128,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="192907520"/>
-        <c:axId val="192917888"/>
+        <c:axId val="219268992"/>
+        <c:axId val="217407488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="192907520"/>
+        <c:axId val="219268992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1179,17 +1167,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192917888"/>
+        <c:crossAx val="217407488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="192917888"/>
+        <c:axId val="217407488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1220,26 +1207,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192907520"/>
+        <c:crossAx val="219268992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1286,8 +1271,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.6540244969378827E-2"/>
-                  <c:y val="-0.39448162729658792"/>
+                  <c:x val="3.6540244969378834E-2"/>
+                  <c:y val="-0.39448162729658798"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1384,12 +1369,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="193029248"/>
-        <c:axId val="193031168"/>
+        <c:axId val="219370240"/>
+        <c:axId val="219372160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="193029248"/>
+        <c:axId val="219370240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1415,12 +1399,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193031168"/>
+        <c:crossAx val="219372160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="193031168"/>
+        <c:axId val="219372160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1450,7 +1434,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t>degrees c</a:t>
+                  <a:t>(°C)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1461,7 +1445,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193029248"/>
+        <c:crossAx val="219370240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1471,7 +1455,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1905,12 +1889,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="199307648"/>
-        <c:axId val="199309568"/>
+        <c:axId val="219525504"/>
+        <c:axId val="219527424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199307648"/>
+        <c:axId val="219525504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1949,12 +1932,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199309568"/>
+        <c:crossAx val="219527424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199309568"/>
+        <c:axId val="219527424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1989,7 +1972,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199307648"/>
+        <c:crossAx val="219525504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2002,7 +1985,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2033,7 +2016,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2443,12 +2425,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="207958016"/>
-        <c:axId val="207959936"/>
+        <c:axId val="219582464"/>
+        <c:axId val="219584384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207958016"/>
+        <c:axId val="219582464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2483,17 +2464,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207959936"/>
+        <c:crossAx val="219584384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207959936"/>
+        <c:axId val="219584384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2524,26 +2504,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207958016"/>
+        <c:crossAx val="219582464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5010,7 +4988,7 @@
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6521,18 +6499,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="G5:K5"/>
     <mergeCell ref="B34:F34"/>
     <mergeCell ref="G34:K34"/>
     <mergeCell ref="B35:F35"/>
     <mergeCell ref="G35:K35"/>
     <mergeCell ref="B36:F36"/>
     <mergeCell ref="G36:K36"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="G5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
